--- a/public/support files/Marty Young.xlsx
+++ b/public/support files/Marty Young.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariaadelaida\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\github\smartChartv1\public\support files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -859,9 +859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -951,7 +949,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
